--- a/nifi/application/config/xlsx_config/VO_AU_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/VO_AU_CONFIG.xlsx
@@ -15,6 +15,7 @@
     <sheet name="CARSGUIDE" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="DRIVE" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="AUTOTRADER" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="YURY.CARSGUIDE" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="73">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -200,48 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">expect_column_values_to_be_in_set_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value_set' : ['pro','private','dealer','professional',’particuliers’], 'mostly' : 0.95}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VN_IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'mostly': 0.99}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_in_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value_set' : [0,1,2], 'mostly' : 0.99}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_returning_row_unique_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARQUE_CORRECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODELE_CORRECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYLINDRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_returning_row_count_on_conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'column_A': 'TYPE' , 'column_B':'VN_IND', 'condition_A':['dealer', 'pro'], 'condition_B': [2,0], 'meta' : {'usage':'DEALER_USEDCARS'}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'column_A': 'TYPE' , 'column_B':'VN_IND', 'condition_A':['private'], 'condition_B': [2,0],'meta' : {'usage':'PRIVATE_USEDCARS'}}</t>
   </si>
   <si>
     <r>
@@ -252,7 +211,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{'column_A' : 'TYPE' , 'column_B' : 'VN_IND' , 'condition_A' : [</t>
+      <t xml:space="preserve">{'value_set' : ['pro','private','dealer','professional',</t>
     </r>
     <r>
       <rPr>
@@ -271,7 +230,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">dealer</t>
+      <t xml:space="preserve">particuliers</t>
     </r>
     <r>
       <rPr>
@@ -290,8 +249,50 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,'pro'] ,'condition_B':[1],'meta' : {'usage':'DEALER_NEWCARS'}} </t>
+      <t xml:space="preserve">], 'mostly' : 0.95}</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN_IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'mostly': 0.99}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_in_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value_set' : [0,1,2], 'mostly' : 0.99}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_unique_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARQUE_CORRECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODELE_CORRECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYLINDRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_count_on_conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_A': 'TYPE' , 'column_B':'VN_IND', 'condition_A':['dealer', 'pro'], 'condition_B': [2,0], 'meta' : {'usage':'DEALER_USEDCARS'}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_A': 'TYPE' , 'column_B':'VN_IND', 'condition_A':['private'], 'condition_B': [2,0],'meta' : {'usage':'PRIVATE_USEDCARS'}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_A' : 'TYPE' , 'column_B' : 'VN_IND' , 'condition_A' : ['dealer','pro'] ,'condition_B':[1],'meta' : {'usage':'DEALER_NEWCARS'}} </t>
   </si>
 </sst>
 </file>
@@ -476,8 +477,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,7 +1173,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1668,7 +1669,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,4 +1706,51 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>